--- a/financial_files/excel/DELL.xlsx
+++ b/financial_files/excel/DELL.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:K117" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:K117" headerRowCount="1">
   <autoFilter ref="A1:K117"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/DELL.xlsx
+++ b/financial_files/excel/DELL.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -152,6 +154,33 @@
     <tableColumn id="9" name="2019"/>
     <tableColumn id="10" name="2020"/>
     <tableColumn id="11" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:G23" headerRowCount="1">
+  <autoFilter ref="A1:G23"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2015"/>
+    <tableColumn id="3" name="2016"/>
+    <tableColumn id="4" name="2017"/>
+    <tableColumn id="5" name="2018"/>
+    <tableColumn id="6" name="2019"/>
+    <tableColumn id="7" name="2020"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B50" headerRowCount="1">
+  <autoFilter ref="A1:B50"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5522,4 +5551,1201 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>54142000000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50911000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62164000000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>79040000000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>90621000000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>92154000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-316000000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-514000000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2390000000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2416000000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-191000000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2622000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1215000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1286000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-4494000000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-4769000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-2361000000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-4000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>107000000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>118000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1420000000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1843000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>180000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5533000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>718435000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>718435000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>718435000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>718435000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>719000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>751000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>45122000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>118206000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>124193000000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>111820000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>118861000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2981000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6329000000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7873000000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4320000000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7737000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10650000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43061000000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>43998000000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>49201000000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>44319000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1572000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19240000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17869000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>254000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3784000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2551000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2162000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2367000000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6843000000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6991000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9291000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-455000000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-394000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-882000000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1581000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-1487000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-2576000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.2486</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.0316</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.0418</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.09089999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.0596</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2714</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1465</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0958</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.0566</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.4421</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1893</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.8755</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.2391</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.0712</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.9857</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13.8976</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.1524</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0948</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3289</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.1564</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.5434</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0459</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2096000000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1768000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1485000000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5262000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5504000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6715000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="D21" t="n">
+        <v>26.7804</v>
+      </c>
+      <c r="E21" t="n">
+        <v>24.8721</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3532</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.0386</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>34936210000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>36333650000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-15.1239</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.8712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 6-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1081.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1297.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2164.88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6499.83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 6-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-4.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-5.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9.09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-42.70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1326.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>135.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>167.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>287.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>26.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>65.36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>22.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>29.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>57.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>32.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>44319000000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3.178000189566462</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4.279528216386157</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.180613823672197</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7.8712</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>23.24421285961742</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5.745613924738627</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2.872806962369313</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Dell Technologies Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NYQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Computer Hardware</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>http://www.delltechnologies.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>54129512448</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2719701</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9.70415</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>73.29000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>